--- a/Bizmate/ColumnMappings.xlsx
+++ b/Bizmate/ColumnMappings.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Bizmate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51661BDE-81EE-436F-932C-A7374C019196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="218">
   <si>
     <t>Name</t>
   </si>
@@ -421,6 +415,9 @@
     <t>Photo Links GDrive</t>
   </si>
   <si>
+    <t>Item Code_x</t>
+  </si>
+  <si>
     <t>CategoryIds</t>
   </si>
   <si>
@@ -436,197 +433,248 @@
     <t>Alias Name</t>
   </si>
   <si>
+    <t>Item Code_y</t>
+  </si>
+  <si>
+    <t>Brand_y</t>
+  </si>
+  <si>
+    <t>Fabric</t>
+  </si>
+  <si>
+    <t>Style_y</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>Multiplexer</t>
+  </si>
+  <si>
+    <t>Min Qty</t>
+  </si>
+  <si>
+    <t>Sale Type</t>
+  </si>
+  <si>
+    <t>Per Round Capacity</t>
+  </si>
+  <si>
+    <t>Shipping Charges</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>HSNCode</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Video URL</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Flipkart FSN</t>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+  </si>
+  <si>
+    <t>MultiImageUrl</t>
+  </si>
+  <si>
+    <t>DiscountType</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>Size_y</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>SizeItemCode</t>
+  </si>
+  <si>
+    <t>SizeBarcode</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>StockWarning</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>FSN1</t>
+  </si>
+  <si>
+    <t>Alias1</t>
+  </si>
+  <si>
+    <t>Alias2</t>
+  </si>
+  <si>
+    <t>Alias3</t>
+  </si>
+  <si>
+    <t>Alias4</t>
+  </si>
+  <si>
+    <t>Alias5</t>
+  </si>
+  <si>
+    <t>Alias6</t>
+  </si>
+  <si>
+    <t>EAN1</t>
+  </si>
+  <si>
+    <t>EAN2</t>
+  </si>
+  <si>
+    <t>EAN3</t>
+  </si>
+  <si>
+    <t>EAN4</t>
+  </si>
+  <si>
+    <t>EAN5</t>
+  </si>
+  <si>
+    <t>FSN2</t>
+  </si>
+  <si>
+    <t>FSN3</t>
+  </si>
+  <si>
+    <t>FSN4</t>
+  </si>
+  <si>
+    <t>FSN5</t>
+  </si>
+  <si>
+    <t>Sale Price Price</t>
+  </si>
+  <si>
+    <t>Sale Price Discount</t>
+  </si>
+  <si>
+    <t>MRP Price</t>
+  </si>
+  <si>
+    <t>MRP Discount</t>
+  </si>
+  <si>
+    <t>Retailer Price</t>
+  </si>
+  <si>
+    <t>Retailer Discount</t>
+  </si>
+  <si>
+    <t>Wholesaler Price</t>
+  </si>
+  <si>
+    <t>Wholesaler Discount</t>
+  </si>
+  <si>
+    <t>Special Wholesaler Price</t>
+  </si>
+  <si>
+    <t>Special Wholesaler Discount</t>
+  </si>
+  <si>
+    <t>Corporate Price</t>
+  </si>
+  <si>
+    <t>Corporate Discount</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Op.Stock</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>EAN</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
     <t>Item Code</t>
   </si>
   <si>
-    <t>Brand_y</t>
-  </si>
-  <si>
-    <t>Fabric</t>
-  </si>
-  <si>
-    <t>Style_y</t>
-  </si>
-  <si>
-    <t>Packing</t>
-  </si>
-  <si>
-    <t>Multiplexer</t>
-  </si>
-  <si>
-    <t>Min Qty</t>
-  </si>
-  <si>
-    <t>Sale Type</t>
-  </si>
-  <si>
-    <t>Per Round Capacity</t>
-  </si>
-  <si>
-    <t>Shipping Charges</t>
-  </si>
-  <si>
-    <t>GST</t>
-  </si>
-  <si>
-    <t>HSNCode</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Video URL</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Flipkart FSN</t>
-  </si>
-  <si>
-    <t>ImageUrl</t>
-  </si>
-  <si>
-    <t>MultiImageUrl</t>
-  </si>
-  <si>
-    <t>DiscountType</t>
-  </si>
-  <si>
-    <t>Levels</t>
-  </si>
-  <si>
-    <t>Size_y</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>SizeItemCode</t>
-  </si>
-  <si>
-    <t>SizeBarcode</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>StockWarning</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Sale Price Price</t>
-  </si>
-  <si>
-    <t>Sale Price Discount</t>
-  </si>
-  <si>
-    <t>MRP Price</t>
-  </si>
-  <si>
-    <t>MRP Discount</t>
-  </si>
-  <si>
-    <t>Retailer Price</t>
-  </si>
-  <si>
-    <t>Retailer Discount</t>
-  </si>
-  <si>
-    <t>Wholesaler Price</t>
-  </si>
-  <si>
-    <t>Wholesaler Discount</t>
-  </si>
-  <si>
-    <t>Special Wholesaler Price</t>
-  </si>
-  <si>
-    <t>Special Wholesaler Discount</t>
-  </si>
-  <si>
-    <t>Corporate Price</t>
-  </si>
-  <si>
-    <t>Corporate Discount</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Op.Stock</t>
-  </si>
-  <si>
-    <t>MRP</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>EAN</t>
-  </si>
-  <si>
-    <t>Gloves</t>
+    <t>Cid</t>
   </si>
   <si>
     <t>Pid</t>
   </si>
   <si>
     <t>HSN</t>
-  </si>
-  <si>
-    <t>Cid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,14 +737,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -743,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,27 +815,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,24 +849,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1020,16 +1024,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FX3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:GO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DS1" workbookViewId="0">
-      <selection activeCell="ED3" sqref="ED3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:180" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:197">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1570,8 +1572,59 @@
       <c r="FX1" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="FY1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="2" spans="1:180" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:197">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1588,94 +1641,94 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q2" t="s">
         <v>16</v>
       </c>
       <c r="R2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="S2" t="s">
         <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U2" t="s">
         <v>20</v>
       </c>
       <c r="V2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="W2" t="s">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="Y2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Z2" t="s">
         <v>16</v>
       </c>
       <c r="AA2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="AC2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="AD2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="AE2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="AF2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AG2" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="AH2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AI2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AJ2" t="s">
         <v>1</v>
@@ -1684,55 +1737,55 @@
         <v>20</v>
       </c>
       <c r="AL2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AN2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="AO2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AP2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AQ2" t="s">
         <v>1</v>
       </c>
       <c r="AR2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AS2" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AT2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AU2" t="s">
         <v>18</v>
       </c>
       <c r="AV2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AW2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AX2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AY2" t="s">
         <v>1</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BB2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="BC2" t="s">
         <v>18</v>
@@ -1741,393 +1794,438 @@
         <v>16</v>
       </c>
       <c r="BE2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="BF2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="BG2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="BH2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="BI2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="BJ2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BK2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BL2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BM2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BN2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BO2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BP2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BQ2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BR2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BS2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BT2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BU2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BV2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BW2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BX2" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="BY2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="BZ2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CA2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CB2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CC2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CD2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CE2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="CF2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CG2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="CH2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CI2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CJ2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CK2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CL2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CM2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CN2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CO2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CP2" t="s">
         <v>1</v>
       </c>
       <c r="CQ2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CR2" t="s">
         <v>16</v>
       </c>
       <c r="CS2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="CT2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="CU2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="CV2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="CW2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="CX2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="CY2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="CZ2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DA2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DB2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DC2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DD2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DE2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DF2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DG2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DH2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DI2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DJ2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DK2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DL2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DM2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DN2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DO2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DP2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DQ2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DR2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DS2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DT2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DU2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DV2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DW2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DX2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DY2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DZ2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="EA2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="EB2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="EC2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="ED2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="EE2" t="s">
+        <v>215</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>216</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>214</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>204</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>205</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>203</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>203</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>217</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>211</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>20</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>207</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>207</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>203</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>203</v>
+      </c>
+      <c r="FE2" t="s">
         <v>197</v>
       </c>
-      <c r="EF2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>187</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>186</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>188</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>186</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>186</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>186</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>8</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>186</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>186</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>198</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>186</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>186</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>20</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>190</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>190</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>186</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>186</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>180</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>160</v>
-      </c>
       <c r="FF2" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="FG2" t="s">
+        <v>203</v>
+      </c>
+      <c r="FH2" t="s">
         <v>16</v>
       </c>
-      <c r="FH2" t="s">
-        <v>186</v>
-      </c>
       <c r="FI2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="FJ2" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="FK2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="FL2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="FM2" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="FN2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="FO2" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="FQ2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="FR2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="FS2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="FT2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="FU2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="FV2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="FW2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="FX2" t="s">
-        <v>186</v>
+        <v>1</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>201</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>200</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:180" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:197">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="U3" t="s">
         <v>1</v>
       </c>
-      <c r="AS3" t="s">
-        <v>1</v>
-      </c>
       <c r="CP3" t="s">
-        <v>195</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="EF3" t="s">
         <v>1</v>
@@ -2135,7 +2233,10 @@
       <c r="EG3" t="s">
         <v>1</v>
       </c>
-      <c r="EY3" t="s">
+      <c r="EH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ3" t="s">
         <v>1</v>
       </c>
     </row>
